--- a/Working paper tables_7_28_2022.xlsx
+++ b/Working paper tables_7_28_2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Rec Season ALL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="38">
   <si>
     <t>Year</t>
   </si>
@@ -119,7 +119,25 @@
     <t>Table  5. Private mode discards in state waters in numbers of fish (thousands) per season (open/closed) and stock ID region (central, east, and west).</t>
   </si>
   <si>
-    <t>Table 6. Total State and Federal Private mode discards in numbers of fish (thousands) by season (open/closed) and stock ID region.</t>
+    <t>Priv_Open_West</t>
+  </si>
+  <si>
+    <t>Priv_Open_Central</t>
+  </si>
+  <si>
+    <t>Priv_Open_East</t>
+  </si>
+  <si>
+    <t>Priv_Closed_West</t>
+  </si>
+  <si>
+    <t>Priv_Closed_Central</t>
+  </si>
+  <si>
+    <t>Priv_Closed_East</t>
+  </si>
+  <si>
+    <t>Total State and Federal Private component discards in numbers of fish (thousands) by season (open/closed) and stock ID region.</t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>East</c:v>
+                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2838,121 +2856,121 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>76.356732210000004</c:v>
+                  <c:v>63.442873653382705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.4906784948070397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.69533819922820606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.405053690000003</c:v>
+                  <c:v>43.560526561785899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.324280490999996</c:v>
+                  <c:v>204.98995205702698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.687619398999999</c:v>
+                  <c:v>38.582497561874902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1033384030000004</c:v>
+                  <c:v>120.037703960147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.687172842000003</c:v>
+                  <c:v>529.27329637858293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0218543069999999</c:v>
+                  <c:v>371.12230102405096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.540343880000002</c:v>
+                  <c:v>422.25772114146002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.277015182999989</c:v>
+                  <c:v>410.62487708302598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.073089719999999</c:v>
+                  <c:v>450.63011872205595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.725777665000003</c:v>
+                  <c:v>528.829309342682</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.863922563000003</c:v>
+                  <c:v>1213.1873940652299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.967462373</c:v>
+                  <c:v>1942.6495934524698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.811091816999998</c:v>
+                  <c:v>413.05778797590301</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.990345010000002</c:v>
+                  <c:v>477.79485972431303</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.660448259999999</c:v>
+                  <c:v>739.97543817285202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.439856860999999</c:v>
+                  <c:v>1786.41944891866</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.168580293999995</c:v>
+                  <c:v>542.96540772297499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7293384990000007</c:v>
+                  <c:v>402.46710924454902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.873986962</c:v>
+                  <c:v>643.37112872124101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0690291059999999</c:v>
+                  <c:v>1347.9517577721299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.300999794999999</c:v>
+                  <c:v>2647.4115172421498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>92.921498528000001</c:v>
+                  <c:v>1580.2796886269298</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.938324953999999</c:v>
+                  <c:v>1769.54524675368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.270465016200006</c:v>
+                  <c:v>770.10285284321799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0810007491129001</c:v>
+                  <c:v>564.89181976072894</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.470648346381502</c:v>
+                  <c:v>516.48804012968196</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.247019619033299</c:v>
+                  <c:v>360.75459595608299</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.0135497884193505</c:v>
+                  <c:v>353.79886424744001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6873113909677397</c:v>
+                  <c:v>183.27164976662601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>994.4318392419849</c:v>
+                  <c:v>1288.67366138846</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>530.84115305459022</c:v>
+                  <c:v>537.58841069040295</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>515.94128285068859</c:v>
+                  <c:v>609.30695104907602</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>91.219110616614756</c:v>
+                  <c:v>99.173445628352695</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>320.399519231</c:v>
+                  <c:v>320.39951919537202</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380.82098983309999</c:v>
+                  <c:v>380.82098985802105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>844.18409610399999</c:v>
+                  <c:v>844.18409615763994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,121 +3141,121 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>179.40336127</c:v>
+                  <c:v>179.40336126929699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1687673966</c:v>
+                  <c:v>13.168767396528899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4700170690000007</c:v>
+                  <c:v>4.4700170693128198</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9245502686999999</c:v>
+                  <c:v>0.92455026865212797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.528230378</c:v>
+                  <c:v>13.5282303797861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113.798523308</c:v>
+                  <c:v>113.79852331361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1326853910000008</c:v>
+                  <c:v>9.1326853906400505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>323.027725256</c:v>
+                  <c:v>323.027725237764</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>772.20456231599996</c:v>
+                  <c:v>772.20456230910793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1587.532275905</c:v>
+                  <c:v>1587.5322758827001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1315.5769662359</c:v>
+                  <c:v>1315.57696625776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1657.181794351</c:v>
+                  <c:v>1657.18179440065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>940.42151097800001</c:v>
+                  <c:v>940.42151102199603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>226.084136387</c:v>
+                  <c:v>226.08413639467</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1014.854174671</c:v>
+                  <c:v>1014.85417467042</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2024.06523108141</c:v>
+                  <c:v>2024.0652310273001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>831.317522212016</c:v>
+                  <c:v>831.31752215585209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2312.3497023554996</c:v>
+                  <c:v>2312.3497023321897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1316.5880189290001</c:v>
+                  <c:v>1316.5880188137901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1673.859228135</c:v>
+                  <c:v>1673.85922830553</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3289.215515499</c:v>
+                  <c:v>3289.2155154747802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2425.0886321450002</c:v>
+                  <c:v>2425.08863201448</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3415.2058233066</c:v>
+                  <c:v>3415.2058233542803</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2388.4894178692002</c:v>
+                  <c:v>2388.4894180246001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2892.9322602285997</c:v>
+                  <c:v>2892.9322602971802</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4146.9427025209998</c:v>
+                  <c:v>4146.9427025089999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>929.74968239436907</c:v>
+                  <c:v>929.74968232507399</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1497.49706849726</c:v>
+                  <c:v>1497.4970684397799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1024.4788851769802</c:v>
+                  <c:v>1024.47888516938</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>881.73285180845903</c:v>
+                  <c:v>881.73285179946504</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>684.46560184030091</c:v>
+                  <c:v>684.46560183052497</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1641.1157916502607</c:v>
+                  <c:v>1641.1157917503801</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>453.37372802787502</c:v>
+                  <c:v>453.37372803005798</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>577.29676516842403</c:v>
+                  <c:v>1029.77423941662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>963.621859582041</c:v>
+                  <c:v>1533.3479519790399</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2727.0215830176498</c:v>
+                  <c:v>2727.02158316327</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1052.63848666423</c:v>
+                  <c:v>1052.63848656505</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1186.89291244793</c:v>
+                  <c:v>1186.8929124445401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,7 +3276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>West</c:v>
+                  <c:v>East</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3408,121 +3426,121 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>63.442873659</c:v>
+                  <c:v>76.356732204378901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4906784952100001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69533819920600004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.560526565159996</c:v>
+                  <c:v>82.405053691211592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204.98995205361001</c:v>
+                  <c:v>41.324280486727901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.582497565170002</c:v>
+                  <c:v>11.6876193991099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.03770395959999</c:v>
+                  <c:v>3.1033384031532503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>529.27329635199999</c:v>
+                  <c:v>35.6871728449131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>371.12230099369998</c:v>
+                  <c:v>7.0218543071205204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>422.25772114149999</c:v>
+                  <c:v>21.540343879988299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>410.6248770418</c:v>
+                  <c:v>78.277015176945298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>450.63011872780004</c:v>
+                  <c:v>80.073089729589299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>528.829309341</c:v>
+                  <c:v>29.7257776643733</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1213.1873940116</c:v>
+                  <c:v>38.863922553709699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1942.6495934490001</c:v>
+                  <c:v>13.9674623756842</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>413.05778799799998</c:v>
+                  <c:v>35.811091814420898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>482.62717258204799</c:v>
+                  <c:v>25.990345007123999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>739.97543816924599</c:v>
+                  <c:v>12.660448259977301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2006.8948918999001</c:v>
+                  <c:v>26.439856861358102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>547.25727046599991</c:v>
+                  <c:v>66.168580300857201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>458.86944336600004</c:v>
+                  <c:v>5.7293384992427399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>723.42941315120004</c:v>
+                  <c:v>6.8739869623467404</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1413.7215082600001</c:v>
+                  <c:v>2.0690291061486001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2967.126665412</c:v>
+                  <c:v>25.300999794875001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1880.348873615</c:v>
+                  <c:v>92.921498534616205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2060.1517008159999</c:v>
+                  <c:v>30.938324950123299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>916.91004860299995</c:v>
+                  <c:v>43.270465016639903</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1193.0481021501998</c:v>
+                  <c:v>4.0810007493090206</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>795.67035172896101</c:v>
+                  <c:v>51.470648344940798</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>721.04644373843405</c:v>
+                  <c:v>24.247019620247201</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>900.65042686117897</c:v>
+                  <c:v>8.0135497896138812</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>459.84948837181798</c:v>
+                  <c:v>3.6873113915209803</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>297.26752062688502</c:v>
+                  <c:v>3.0256985052459999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.251268046065599</c:v>
+                  <c:v>6.5040104341121596</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31.543622573770499</c:v>
+                  <c:v>3.7955984361664798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.110989333723392</c:v>
+                  <c:v>38.495177637069503</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61.761143726747804</c:v>
+                  <c:v>61.761143728081699</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>123.726656308302</c:v>
+                  <c:v>123.72665631869</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61.010426884759397</c:v>
+                  <c:v>61.010426870909498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,7 +3833,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>East</c:v>
+                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4013,64 +4031,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>10.635168664035</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.944614800000004</c:v>
+                  <c:v>51.692861845383604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.419044612999997</c:v>
+                  <c:v>250.97127057745101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5556705750000002</c:v>
+                  <c:v>182.99877840549101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>112.137279443412</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>144.239988706585</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9198152679999998</c:v>
+                  <c:v>404.22952825153101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67.293033379999997</c:v>
+                  <c:v>539.5171718611499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.258159211999995</c:v>
+                  <c:v>444.24651421484504</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.37812182</c:v>
+                  <c:v>470.83750851892398</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>300.10882282859097</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.400045538887099</c:v>
+                  <c:v>1042.72676987214</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.364279360618504</c:v>
+                  <c:v>608.93611316926797</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>105.22075714076701</c:v>
+                  <c:v>692.11461890650708</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1492.56476275058</c:v>
+                  <c:v>981.43543403528099</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.601020249032301</c:v>
+                  <c:v>506.70409104259596</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.7877231104147597</c:v>
+                  <c:v>547.56974355427997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.881322664409801</c:v>
+                  <c:v>87.796671923669791</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22.735994142411499</c:v>
+                  <c:v>143.82504548259899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>672.26754663688507</c:v>
+                  <c:v>19.6833159364751</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -4298,73 +4316,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>243.96684921459001</c:v>
+                  <c:v>243.96684921402499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>281.52399461498402</c:v>
+                  <c:v>281.523994632707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>371.64035349599999</c:v>
+                  <c:v>371.64035342988302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1245.75768447</c:v>
+                  <c:v>1245.75768449164</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2698.8978066049999</c:v>
+                  <c:v>2698.8978065384499</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3136.6508393353001</c:v>
+                  <c:v>3136.6508392656501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1924.069362723</c:v>
+                  <c:v>1924.06936271266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1089.8487013566998</c:v>
+                  <c:v>1089.84870136935</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1639.5652438729999</c:v>
+                  <c:v>1639.5652439031101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1280.1770242339999</c:v>
+                  <c:v>1280.1770242056</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1549.0331449400001</c:v>
+                  <c:v>1549.0331450116498</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3426.3824601046299</c:v>
+                  <c:v>3426.3824600535099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2339.13096935974</c:v>
+                  <c:v>2339.1309693564899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3401.4315359402203</c:v>
+                  <c:v>3401.4315358426397</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2847.7826974545401</c:v>
+                  <c:v>2847.7826975007101</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3286.8459111976999</c:v>
+                  <c:v>3286.8459110827198</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3230.2739173212399</c:v>
+                  <c:v>3230.27391752738</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3411.6203783710198</c:v>
+                  <c:v>3411.6203785397097</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2580.4659900619777</c:v>
+                  <c:v>2127.9885162124801</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4518.9732844609598</c:v>
+                  <c:v>3949.24719203418</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5539.6127734143502</c:v>
+                  <c:v>5539.6127735177506</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3972.8057369057701</c:v>
+                  <c:v>3972.8057367101296</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4577.7915247786696</c:v>
+                  <c:v>4577.7915247594901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4385,7 +4403,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>West</c:v>
+                  <c:v>East</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4583,73 +4601,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8028557988524598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.692861843754102</c:v>
+                  <c:v>52.944614797238501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.495827712999997</c:v>
+                  <c:v>23.4190446111072</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>178.70691562900001</c:v>
+                  <c:v>1.5556705753609599</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.734945357999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64.181704370000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>338.45977779999998</c:v>
+                  <c:v>2.91981526775806</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>219.80202366499998</c:v>
+                  <c:v>67.293033376540905</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>144.17732927099999</c:v>
+                  <c:v>36.258159210961502</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.231054379</c:v>
+                  <c:v>24.3781218228517</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>153.301627102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>414.57048753129902</c:v>
+                  <c:v>36.400045540298997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>329.75380156703898</c:v>
+                  <c:v>51.364279359154402</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>331.82277119156601</c:v>
+                  <c:v>105.22075713945399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>434.58387138482101</c:v>
+                  <c:v>1492.5647625582401</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>230.12625244658199</c:v>
+                  <c:v>10.601020250622799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>545.27221833311501</c:v>
+                  <c:v>5.4901978638559603</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87.796671923934397</c:v>
+                  <c:v>42.881322661964397</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>206.91229065022998</c:v>
+                  <c:v>20.205595185728502</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42.4198530402766</c:v>
+                  <c:v>669.66556043558603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>198.96566949825203</c:v>
+                  <c:v>198.965669493148</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>523.31282141909799</c:v>
+                  <c:v>523.31282141829797</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>334.14135483524097</c:v>
+                  <c:v>334.14135480971402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7182,16 +7200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7480,7 +7498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -11353,8 +11371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13534,20 +13552,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G42" sqref="A1:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -13574,22 +13598,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -13598,36 +13640,36 @@
       </c>
       <c r="B4" s="21">
         <f>J4/1000</f>
-        <v>76.356732210000004</v>
+        <v>63.442873653382705</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" ref="C4:G4" si="0">K4/1000</f>
-        <v>179.40336127</v>
+        <f>K4/1000</f>
+        <v>179.40336126929699</v>
       </c>
       <c r="D4" s="21">
-        <f t="shared" si="0"/>
-        <v>63.442873659</v>
+        <f>L4/1000</f>
+        <v>76.356732204378901</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" si="0"/>
+        <f>M4/1000</f>
         <v>0</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" si="0"/>
+        <f>N4/1000</f>
         <v>0</v>
       </c>
       <c r="G4" s="21">
-        <f t="shared" si="0"/>
+        <f>O4/1000</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <v>76356.732210000002</v>
+        <v>63442.873653382703</v>
       </c>
       <c r="K4">
-        <v>179403.36126999999</v>
+        <v>179403.36126929699</v>
       </c>
       <c r="L4">
-        <v>63442.873658999997</v>
+        <v>76356.732204378903</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -13644,37 +13686,37 @@
         <v>1982</v>
       </c>
       <c r="B5" s="21">
-        <f t="shared" ref="B5:B42" si="1">J5/1000</f>
-        <v>0</v>
+        <f t="shared" ref="B5:B42" si="0">J5/1000</f>
+        <v>6.4906784948070397</v>
       </c>
       <c r="C5" s="21">
-        <f t="shared" ref="C5:C42" si="2">K5/1000</f>
-        <v>13.1687673966</v>
+        <f t="shared" ref="C5:C42" si="1">K5/1000</f>
+        <v>13.168767396528899</v>
       </c>
       <c r="D5" s="21">
-        <f t="shared" ref="D5:D42" si="3">L5/1000</f>
-        <v>6.4906784952100001</v>
+        <f t="shared" ref="D5:D42" si="2">L5/1000</f>
+        <v>0</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" ref="E5:E42" si="4">M5/1000</f>
+        <f t="shared" ref="E5:E42" si="3">M5/1000</f>
         <v>0</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" ref="F5:F42" si="5">N5/1000</f>
+        <f t="shared" ref="F5:F42" si="4">N5/1000</f>
         <v>0</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:G42" si="6">O5/1000</f>
+        <f t="shared" ref="G5:G42" si="5">O5/1000</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6490.6784948070399</v>
       </c>
       <c r="K5">
-        <v>13168.7673966</v>
+        <v>13168.7673965289</v>
       </c>
       <c r="L5">
-        <v>6490.6784952099997</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -13691,37 +13733,37 @@
         <v>1983</v>
       </c>
       <c r="B6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69533819922820606</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
+        <v>4.4700170693128198</v>
+      </c>
+      <c r="D6" s="21">
         <f t="shared" si="2"/>
-        <v>4.4700170690000007</v>
-      </c>
-      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
         <f t="shared" si="3"/>
-        <v>0.69533819920600004</v>
-      </c>
-      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F6" s="21">
+      <c r="G6" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G6" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>695.33819922820601</v>
       </c>
       <c r="K6">
-        <v>4470.0170690000004</v>
+        <v>4470.0170693128202</v>
       </c>
       <c r="L6">
-        <v>695.33819920600001</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -13738,37 +13780,37 @@
         <v>1984</v>
       </c>
       <c r="B7" s="21">
+        <f t="shared" si="0"/>
+        <v>43.560526561785899</v>
+      </c>
+      <c r="C7" s="21">
         <f t="shared" si="1"/>
-        <v>82.405053690000003</v>
-      </c>
-      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
+        <v>82.405053691211592</v>
+      </c>
+      <c r="E7" s="21">
         <f t="shared" si="3"/>
-        <v>43.560526565159996</v>
-      </c>
-      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F7" s="21">
+      <c r="G7" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G7" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J7">
-        <v>82405.053690000001</v>
+        <v>43560.526561785897</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>43560.526565159998</v>
+        <v>82405.053691211593</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -13785,37 +13827,37 @@
         <v>1985</v>
       </c>
       <c r="B8" s="21">
+        <f t="shared" si="0"/>
+        <v>204.98995205702698</v>
+      </c>
+      <c r="C8" s="21">
         <f t="shared" si="1"/>
-        <v>41.324280490999996</v>
-      </c>
-      <c r="C8" s="21">
+        <v>0.92455026865212797</v>
+      </c>
+      <c r="D8" s="21">
         <f t="shared" si="2"/>
-        <v>0.9245502686999999</v>
-      </c>
-      <c r="D8" s="21">
+        <v>41.324280486727901</v>
+      </c>
+      <c r="E8" s="21">
         <f t="shared" si="3"/>
-        <v>204.98995205361001</v>
-      </c>
-      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="21">
+      <c r="G8" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G8" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J8">
-        <v>41324.280490999998</v>
+        <v>204989.952057027</v>
       </c>
       <c r="K8">
-        <v>924.55026869999995</v>
+        <v>924.55026865212801</v>
       </c>
       <c r="L8">
-        <v>204989.95205361</v>
+        <v>41324.280486727897</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -13832,37 +13874,37 @@
         <v>1986</v>
       </c>
       <c r="B9" s="21">
+        <f t="shared" si="0"/>
+        <v>38.582497561874902</v>
+      </c>
+      <c r="C9" s="21">
         <f t="shared" si="1"/>
-        <v>11.687619398999999</v>
-      </c>
-      <c r="C9" s="21">
+        <v>13.5282303797861</v>
+      </c>
+      <c r="D9" s="21">
         <f t="shared" si="2"/>
-        <v>13.528230378</v>
-      </c>
-      <c r="D9" s="21">
+        <v>11.6876193991099</v>
+      </c>
+      <c r="E9" s="21">
         <f t="shared" si="3"/>
-        <v>38.582497565170002</v>
-      </c>
-      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F9" s="21">
+      <c r="G9" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G9" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>11687.619398999999</v>
+        <v>38582.497561874901</v>
       </c>
       <c r="K9">
-        <v>13528.230378</v>
+        <v>13528.2303797861</v>
       </c>
       <c r="L9">
-        <v>38582.497565170001</v>
+        <v>11687.619399109901</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -13879,37 +13921,37 @@
         <v>1987</v>
       </c>
       <c r="B10" s="21">
+        <f t="shared" si="0"/>
+        <v>120.037703960147</v>
+      </c>
+      <c r="C10" s="21">
         <f t="shared" si="1"/>
-        <v>3.1033384030000004</v>
-      </c>
-      <c r="C10" s="21">
+        <v>113.79852331361</v>
+      </c>
+      <c r="D10" s="21">
         <f t="shared" si="2"/>
-        <v>113.798523308</v>
-      </c>
-      <c r="D10" s="21">
+        <v>3.1033384031532503</v>
+      </c>
+      <c r="E10" s="21">
         <f t="shared" si="3"/>
-        <v>120.03770395959999</v>
-      </c>
-      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="G10" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G10" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>3103.3384030000002</v>
+        <v>120037.703960147</v>
       </c>
       <c r="K10">
-        <v>113798.523308</v>
+        <v>113798.52331361</v>
       </c>
       <c r="L10">
-        <v>120037.7039596</v>
+        <v>3103.3384031532501</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -13926,37 +13968,37 @@
         <v>1988</v>
       </c>
       <c r="B11" s="21">
+        <f t="shared" si="0"/>
+        <v>529.27329637858293</v>
+      </c>
+      <c r="C11" s="21">
         <f t="shared" si="1"/>
-        <v>35.687172842000003</v>
-      </c>
-      <c r="C11" s="21">
+        <v>9.1326853906400505</v>
+      </c>
+      <c r="D11" s="21">
         <f t="shared" si="2"/>
-        <v>9.1326853910000008</v>
-      </c>
-      <c r="D11" s="21">
+        <v>35.6871728449131</v>
+      </c>
+      <c r="E11" s="21">
         <f t="shared" si="3"/>
-        <v>529.27329635199999</v>
-      </c>
-      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F11" s="21">
+      <c r="G11" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G11" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J11">
-        <v>35687.172842</v>
+        <v>529273.29637858295</v>
       </c>
       <c r="K11">
-        <v>9132.6853910000009</v>
+        <v>9132.6853906400502</v>
       </c>
       <c r="L11">
-        <v>529273.29635199998</v>
+        <v>35687.172844913097</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -13973,37 +14015,37 @@
         <v>1989</v>
       </c>
       <c r="B12" s="21">
+        <f t="shared" si="0"/>
+        <v>371.12230102405096</v>
+      </c>
+      <c r="C12" s="21">
         <f t="shared" si="1"/>
-        <v>7.0218543069999999</v>
-      </c>
-      <c r="C12" s="21">
+        <v>323.027725237764</v>
+      </c>
+      <c r="D12" s="21">
         <f t="shared" si="2"/>
-        <v>323.027725256</v>
-      </c>
-      <c r="D12" s="21">
+        <v>7.0218543071205204</v>
+      </c>
+      <c r="E12" s="21">
         <f t="shared" si="3"/>
-        <v>371.12230099369998</v>
-      </c>
-      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="21">
+      <c r="G12" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G12" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>7021.8543069999996</v>
+        <v>371122.30102405098</v>
       </c>
       <c r="K12">
-        <v>323027.72525600001</v>
+        <v>323027.72523776401</v>
       </c>
       <c r="L12">
-        <v>371122.30099369999</v>
+        <v>7021.8543071205204</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -14020,37 +14062,37 @@
         <v>1990</v>
       </c>
       <c r="B13" s="21">
+        <f t="shared" si="0"/>
+        <v>422.25772114146002</v>
+      </c>
+      <c r="C13" s="21">
         <f t="shared" si="1"/>
-        <v>21.540343880000002</v>
-      </c>
-      <c r="C13" s="21">
+        <v>772.20456230910793</v>
+      </c>
+      <c r="D13" s="21">
         <f t="shared" si="2"/>
-        <v>772.20456231599996</v>
-      </c>
-      <c r="D13" s="21">
+        <v>21.540343879988299</v>
+      </c>
+      <c r="E13" s="21">
         <f t="shared" si="3"/>
-        <v>422.25772114149999</v>
-      </c>
-      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="21">
+      <c r="G13" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G13" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J13">
-        <v>21540.34388</v>
+        <v>422257.72114146</v>
       </c>
       <c r="K13">
-        <v>772204.562316</v>
+        <v>772204.56230910798</v>
       </c>
       <c r="L13">
-        <v>422257.72114149999</v>
+        <v>21540.343879988301</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -14067,37 +14109,37 @@
         <v>1991</v>
       </c>
       <c r="B14" s="21">
+        <f t="shared" si="0"/>
+        <v>410.62487708302598</v>
+      </c>
+      <c r="C14" s="21">
         <f t="shared" si="1"/>
-        <v>78.277015182999989</v>
-      </c>
-      <c r="C14" s="21">
+        <v>1587.5322758827001</v>
+      </c>
+      <c r="D14" s="21">
         <f t="shared" si="2"/>
-        <v>1587.532275905</v>
-      </c>
-      <c r="D14" s="21">
+        <v>78.277015176945298</v>
+      </c>
+      <c r="E14" s="21">
         <f t="shared" si="3"/>
-        <v>410.6248770418</v>
-      </c>
-      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F14" s="21">
+      <c r="G14" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G14" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J14">
-        <v>78277.015182999996</v>
+        <v>410624.87708302599</v>
       </c>
       <c r="K14">
-        <v>1587532.275905</v>
+        <v>1587532.2758827</v>
       </c>
       <c r="L14">
-        <v>410624.87704180001</v>
+        <v>78277.015176945293</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -14114,37 +14156,37 @@
         <v>1992</v>
       </c>
       <c r="B15" s="21">
+        <f t="shared" si="0"/>
+        <v>450.63011872205595</v>
+      </c>
+      <c r="C15" s="21">
         <f t="shared" si="1"/>
-        <v>80.073089719999999</v>
-      </c>
-      <c r="C15" s="21">
+        <v>1315.57696625776</v>
+      </c>
+      <c r="D15" s="21">
         <f t="shared" si="2"/>
-        <v>1315.5769662359</v>
-      </c>
-      <c r="D15" s="21">
+        <v>80.073089729589299</v>
+      </c>
+      <c r="E15" s="21">
         <f t="shared" si="3"/>
-        <v>450.63011872780004</v>
-      </c>
-      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="21">
+      <c r="G15" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G15" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J15">
-        <v>80073.089720000004</v>
+        <v>450630.11872205598</v>
       </c>
       <c r="K15">
-        <v>1315576.9662359001</v>
+        <v>1315576.9662577601</v>
       </c>
       <c r="L15">
-        <v>450630.11872780003</v>
+        <v>80073.089729589294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -14161,37 +14203,37 @@
         <v>1993</v>
       </c>
       <c r="B16" s="21">
+        <f t="shared" si="0"/>
+        <v>528.829309342682</v>
+      </c>
+      <c r="C16" s="21">
         <f t="shared" si="1"/>
-        <v>29.725777665000003</v>
-      </c>
-      <c r="C16" s="21">
+        <v>1657.18179440065</v>
+      </c>
+      <c r="D16" s="21">
         <f t="shared" si="2"/>
-        <v>1657.181794351</v>
-      </c>
-      <c r="D16" s="21">
+        <v>29.7257776643733</v>
+      </c>
+      <c r="E16" s="21">
         <f t="shared" si="3"/>
-        <v>528.829309341</v>
-      </c>
-      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F16" s="21">
+      <c r="G16" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J16">
-        <v>29725.777665000001</v>
+        <v>528829.30934268201</v>
       </c>
       <c r="K16">
-        <v>1657181.7943510001</v>
+        <v>1657181.7944006501</v>
       </c>
       <c r="L16">
-        <v>528829.30934100004</v>
+        <v>29725.777664373301</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -14208,37 +14250,37 @@
         <v>1994</v>
       </c>
       <c r="B17" s="21">
+        <f t="shared" si="0"/>
+        <v>1213.1873940652299</v>
+      </c>
+      <c r="C17" s="21">
         <f t="shared" si="1"/>
-        <v>38.863922563000003</v>
-      </c>
-      <c r="C17" s="21">
+        <v>940.42151102199603</v>
+      </c>
+      <c r="D17" s="21">
         <f t="shared" si="2"/>
-        <v>940.42151097800001</v>
-      </c>
-      <c r="D17" s="21">
+        <v>38.863922553709699</v>
+      </c>
+      <c r="E17" s="21">
         <f t="shared" si="3"/>
-        <v>1213.1873940116</v>
-      </c>
-      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>38863.922563</v>
+        <v>1213187.3940652299</v>
       </c>
       <c r="K17">
-        <v>940421.51097800001</v>
+        <v>940421.51102199603</v>
       </c>
       <c r="L17">
-        <v>1213187.3940115999</v>
+        <v>38863.922553709701</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -14255,37 +14297,37 @@
         <v>1995</v>
       </c>
       <c r="B18" s="21">
+        <f t="shared" si="0"/>
+        <v>1942.6495934524698</v>
+      </c>
+      <c r="C18" s="21">
         <f t="shared" si="1"/>
-        <v>13.967462373</v>
-      </c>
-      <c r="C18" s="21">
+        <v>226.08413639467</v>
+      </c>
+      <c r="D18" s="21">
         <f t="shared" si="2"/>
-        <v>226.084136387</v>
-      </c>
-      <c r="D18" s="21">
+        <v>13.9674623756842</v>
+      </c>
+      <c r="E18" s="21">
         <f t="shared" si="3"/>
-        <v>1942.6495934490001</v>
-      </c>
-      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F18" s="21">
+      <c r="G18" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>13967.462373</v>
+        <v>1942649.5934524699</v>
       </c>
       <c r="K18">
-        <v>226084.13638700001</v>
+        <v>226084.13639467</v>
       </c>
       <c r="L18">
-        <v>1942649.593449</v>
+        <v>13967.462375684199</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -14302,37 +14344,37 @@
         <v>1996</v>
       </c>
       <c r="B19" s="21">
+        <f t="shared" si="0"/>
+        <v>413.05778797590301</v>
+      </c>
+      <c r="C19" s="21">
         <f t="shared" si="1"/>
-        <v>35.811091816999998</v>
-      </c>
-      <c r="C19" s="21">
+        <v>1014.85417467042</v>
+      </c>
+      <c r="D19" s="21">
         <f t="shared" si="2"/>
-        <v>1014.854174671</v>
-      </c>
-      <c r="D19" s="21">
+        <v>35.811091814420898</v>
+      </c>
+      <c r="E19" s="21">
         <f t="shared" si="3"/>
-        <v>413.05778799799998</v>
-      </c>
-      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F19" s="21">
+      <c r="G19" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G19" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J19">
-        <v>35811.091817</v>
+        <v>413057.78797590302</v>
       </c>
       <c r="K19">
-        <v>1014854.174671</v>
+        <v>1014854.17467042</v>
       </c>
       <c r="L19">
-        <v>413057.78799799999</v>
+        <v>35811.091814420899</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -14349,46 +14391,46 @@
         <v>1997</v>
       </c>
       <c r="B20" s="21">
+        <f t="shared" si="0"/>
+        <v>477.79485972431303</v>
+      </c>
+      <c r="C20" s="21">
         <f t="shared" si="1"/>
-        <v>25.990345010000002</v>
-      </c>
-      <c r="C20" s="21">
+        <v>2024.0652310273001</v>
+      </c>
+      <c r="D20" s="21">
         <f t="shared" si="2"/>
-        <v>2024.06523108141</v>
-      </c>
-      <c r="D20" s="21">
+        <v>25.990345007123999</v>
+      </c>
+      <c r="E20" s="21">
         <f t="shared" si="3"/>
-        <v>482.62717258204799</v>
-      </c>
-      <c r="E20" s="21">
+        <v>10.635168664035</v>
+      </c>
+      <c r="F20" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
+        <v>243.96684921402499</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="5"/>
-        <v>243.96684921459001</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="6"/>
-        <v>5.8028557988524598</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>25990.345010000001</v>
+        <v>477794.85972431302</v>
       </c>
       <c r="K20">
-        <v>2024065.2310814101</v>
+        <v>2024065.2310273</v>
       </c>
       <c r="L20">
-        <v>482627.17258204799</v>
+        <v>25990.345007124</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10635.168664035</v>
       </c>
       <c r="N20">
-        <v>243966.84921459001</v>
+        <v>243966.84921402499</v>
       </c>
       <c r="O20">
-        <v>5802.8557988524599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14396,46 +14438,46 @@
         <v>1998</v>
       </c>
       <c r="B21" s="21">
+        <f t="shared" si="0"/>
+        <v>739.97543817285202</v>
+      </c>
+      <c r="C21" s="21">
         <f t="shared" si="1"/>
-        <v>12.660448259999999</v>
-      </c>
-      <c r="C21" s="21">
+        <v>831.31752215585209</v>
+      </c>
+      <c r="D21" s="21">
         <f t="shared" si="2"/>
-        <v>831.317522212016</v>
-      </c>
-      <c r="D21" s="21">
+        <v>12.660448259977301</v>
+      </c>
+      <c r="E21" s="21">
         <f t="shared" si="3"/>
-        <v>739.97543816924599</v>
-      </c>
-      <c r="E21" s="21">
+        <v>51.692861845383604</v>
+      </c>
+      <c r="F21" s="21">
         <f t="shared" si="4"/>
-        <v>52.944614800000004</v>
-      </c>
-      <c r="F21" s="21">
+        <v>281.523994632707</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="5"/>
-        <v>281.52399461498402</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="6"/>
-        <v>51.692861843754102</v>
+        <v>52.944614797238501</v>
       </c>
       <c r="J21">
-        <v>12660.448259999999</v>
+        <v>739975.43817285204</v>
       </c>
       <c r="K21">
-        <v>831317.52221201605</v>
+        <v>831317.52215585206</v>
       </c>
       <c r="L21">
-        <v>739975.43816924596</v>
+        <v>12660.4482599773</v>
       </c>
       <c r="M21">
-        <v>52944.614800000003</v>
+        <v>51692.861845383602</v>
       </c>
       <c r="N21">
-        <v>281523.99461498403</v>
+        <v>281523.99463270698</v>
       </c>
       <c r="O21">
-        <v>51692.861843754101</v>
+        <v>52944.614797238501</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14443,46 +14485,46 @@
         <v>1999</v>
       </c>
       <c r="B22" s="21">
+        <f t="shared" si="0"/>
+        <v>1786.41944891866</v>
+      </c>
+      <c r="C22" s="21">
         <f t="shared" si="1"/>
-        <v>26.439856860999999</v>
-      </c>
-      <c r="C22" s="21">
+        <v>2312.3497023321897</v>
+      </c>
+      <c r="D22" s="21">
         <f t="shared" si="2"/>
-        <v>2312.3497023554996</v>
-      </c>
-      <c r="D22" s="21">
+        <v>26.439856861358102</v>
+      </c>
+      <c r="E22" s="21">
         <f t="shared" si="3"/>
-        <v>2006.8948918999001</v>
-      </c>
-      <c r="E22" s="21">
+        <v>250.97127057745101</v>
+      </c>
+      <c r="F22" s="21">
         <f t="shared" si="4"/>
-        <v>23.419044612999997</v>
-      </c>
-      <c r="F22" s="21">
+        <v>371.64035342988302</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="5"/>
-        <v>371.64035349599999</v>
-      </c>
-      <c r="G22" s="21">
-        <f t="shared" si="6"/>
-        <v>30.495827712999997</v>
+        <v>23.4190446111072</v>
       </c>
       <c r="J22">
-        <v>26439.856861</v>
+        <v>1786419.4489186599</v>
       </c>
       <c r="K22">
-        <v>2312349.7023554998</v>
+        <v>2312349.7023321898</v>
       </c>
       <c r="L22">
-        <v>2006894.8918999</v>
+        <v>26439.856861358101</v>
       </c>
       <c r="M22">
-        <v>23419.044612999998</v>
+        <v>250971.27057745101</v>
       </c>
       <c r="N22">
-        <v>371640.353496</v>
+        <v>371640.35342988302</v>
       </c>
       <c r="O22">
-        <v>30495.827712999999</v>
+        <v>23419.044611107201</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14490,46 +14532,46 @@
         <v>2000</v>
       </c>
       <c r="B23" s="21">
+        <f t="shared" si="0"/>
+        <v>542.96540772297499</v>
+      </c>
+      <c r="C23" s="21">
         <f t="shared" si="1"/>
-        <v>66.168580293999995</v>
-      </c>
-      <c r="C23" s="21">
+        <v>1316.5880188137901</v>
+      </c>
+      <c r="D23" s="21">
         <f t="shared" si="2"/>
-        <v>1316.5880189290001</v>
-      </c>
-      <c r="D23" s="21">
+        <v>66.168580300857201</v>
+      </c>
+      <c r="E23" s="21">
         <f t="shared" si="3"/>
-        <v>547.25727046599991</v>
-      </c>
-      <c r="E23" s="21">
+        <v>182.99877840549101</v>
+      </c>
+      <c r="F23" s="21">
         <f t="shared" si="4"/>
-        <v>1.5556705750000002</v>
-      </c>
-      <c r="F23" s="21">
+        <v>1245.75768449164</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="5"/>
-        <v>1245.75768447</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" si="6"/>
-        <v>178.70691562900001</v>
+        <v>1.5556705753609599</v>
       </c>
       <c r="J23">
-        <v>66168.580293999999</v>
+        <v>542965.40772297501</v>
       </c>
       <c r="K23">
-        <v>1316588.018929</v>
+        <v>1316588.0188137901</v>
       </c>
       <c r="L23">
-        <v>547257.27046599996</v>
+        <v>66168.580300857197</v>
       </c>
       <c r="M23">
-        <v>1555.6705750000001</v>
+        <v>182998.778405491</v>
       </c>
       <c r="N23">
-        <v>1245757.68447</v>
+        <v>1245757.68449164</v>
       </c>
       <c r="O23">
-        <v>178706.915629</v>
+        <v>1555.6705753609599</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14537,46 +14579,46 @@
         <v>2001</v>
       </c>
       <c r="B24" s="21">
+        <f t="shared" si="0"/>
+        <v>402.46710924454902</v>
+      </c>
+      <c r="C24" s="21">
         <f t="shared" si="1"/>
-        <v>5.7293384990000007</v>
-      </c>
-      <c r="C24" s="21">
+        <v>1673.85922830553</v>
+      </c>
+      <c r="D24" s="21">
         <f t="shared" si="2"/>
-        <v>1673.859228135</v>
-      </c>
-      <c r="D24" s="21">
+        <v>5.7293384992427399</v>
+      </c>
+      <c r="E24" s="21">
         <f t="shared" si="3"/>
-        <v>458.86944336600004</v>
-      </c>
-      <c r="E24" s="21">
+        <v>112.137279443412</v>
+      </c>
+      <c r="F24" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
+        <v>2698.8978065384499</v>
+      </c>
+      <c r="G24" s="21">
         <f t="shared" si="5"/>
-        <v>2698.8978066049999</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="6"/>
-        <v>55.734945357999997</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5729.3384990000004</v>
+        <v>402467.10924454901</v>
       </c>
       <c r="K24">
-        <v>1673859.228135</v>
+        <v>1673859.22830553</v>
       </c>
       <c r="L24">
-        <v>458869.44336600002</v>
+        <v>5729.33849924274</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>112137.279443412</v>
       </c>
       <c r="N24">
-        <v>2698897.806605</v>
+        <v>2698897.8065384501</v>
       </c>
       <c r="O24">
-        <v>55734.945357999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14584,46 +14626,46 @@
         <v>2002</v>
       </c>
       <c r="B25" s="21">
+        <f t="shared" si="0"/>
+        <v>643.37112872124101</v>
+      </c>
+      <c r="C25" s="21">
         <f t="shared" si="1"/>
-        <v>6.873986962</v>
-      </c>
-      <c r="C25" s="21">
+        <v>3289.2155154747802</v>
+      </c>
+      <c r="D25" s="21">
         <f t="shared" si="2"/>
-        <v>3289.215515499</v>
-      </c>
-      <c r="D25" s="21">
+        <v>6.8739869623467404</v>
+      </c>
+      <c r="E25" s="21">
         <f t="shared" si="3"/>
-        <v>723.42941315120004</v>
-      </c>
-      <c r="E25" s="21">
+        <v>144.239988706585</v>
+      </c>
+      <c r="F25" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
+        <v>3136.6508392656501</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="5"/>
-        <v>3136.6508393353001</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="6"/>
-        <v>64.181704370000006</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6873.9869619999999</v>
+        <v>643371.12872124102</v>
       </c>
       <c r="K25">
-        <v>3289215.515499</v>
+        <v>3289215.51547478</v>
       </c>
       <c r="L25">
-        <v>723429.41315120005</v>
+        <v>6873.9869623467403</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>144239.98870658499</v>
       </c>
       <c r="N25">
-        <v>3136650.8393353</v>
+        <v>3136650.8392656501</v>
       </c>
       <c r="O25">
-        <v>64181.704369999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14631,46 +14673,46 @@
         <v>2003</v>
       </c>
       <c r="B26" s="21">
+        <f t="shared" si="0"/>
+        <v>1347.9517577721299</v>
+      </c>
+      <c r="C26" s="21">
         <f t="shared" si="1"/>
-        <v>2.0690291059999999</v>
-      </c>
-      <c r="C26" s="21">
+        <v>2425.08863201448</v>
+      </c>
+      <c r="D26" s="21">
         <f t="shared" si="2"/>
-        <v>2425.0886321450002</v>
-      </c>
-      <c r="D26" s="21">
+        <v>2.0690291061486001</v>
+      </c>
+      <c r="E26" s="21">
         <f t="shared" si="3"/>
-        <v>1413.7215082600001</v>
-      </c>
-      <c r="E26" s="21">
+        <v>404.22952825153101</v>
+      </c>
+      <c r="F26" s="21">
         <f t="shared" si="4"/>
-        <v>2.9198152679999998</v>
-      </c>
-      <c r="F26" s="21">
+        <v>1924.06936271266</v>
+      </c>
+      <c r="G26" s="21">
         <f t="shared" si="5"/>
-        <v>1924.069362723</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="6"/>
-        <v>338.45977779999998</v>
+        <v>2.91981526775806</v>
       </c>
       <c r="J26">
-        <v>2069.029106</v>
+        <v>1347951.75777213</v>
       </c>
       <c r="K26">
-        <v>2425088.6321450002</v>
+        <v>2425088.63201448</v>
       </c>
       <c r="L26">
-        <v>1413721.50826</v>
+        <v>2069.0291061486</v>
       </c>
       <c r="M26">
-        <v>2919.8152679999998</v>
+        <v>404229.52825153101</v>
       </c>
       <c r="N26">
-        <v>1924069.3627230001</v>
+        <v>1924069.3627126601</v>
       </c>
       <c r="O26">
-        <v>338459.77779999998</v>
+        <v>2919.8152677580601</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14678,46 +14720,46 @@
         <v>2004</v>
       </c>
       <c r="B27" s="21">
+        <f t="shared" si="0"/>
+        <v>2647.4115172421498</v>
+      </c>
+      <c r="C27" s="21">
         <f t="shared" si="1"/>
-        <v>25.300999794999999</v>
-      </c>
-      <c r="C27" s="21">
+        <v>3415.2058233542803</v>
+      </c>
+      <c r="D27" s="21">
         <f t="shared" si="2"/>
-        <v>3415.2058233066</v>
-      </c>
-      <c r="D27" s="21">
+        <v>25.300999794875001</v>
+      </c>
+      <c r="E27" s="21">
         <f t="shared" si="3"/>
-        <v>2967.126665412</v>
-      </c>
-      <c r="E27" s="21">
+        <v>539.5171718611499</v>
+      </c>
+      <c r="F27" s="21">
         <f t="shared" si="4"/>
-        <v>67.293033379999997</v>
-      </c>
-      <c r="F27" s="21">
+        <v>1089.84870136935</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" si="5"/>
-        <v>1089.8487013566998</v>
-      </c>
-      <c r="G27" s="21">
-        <f t="shared" si="6"/>
-        <v>219.80202366499998</v>
+        <v>67.293033376540905</v>
       </c>
       <c r="J27">
-        <v>25300.999795</v>
+        <v>2647411.5172421499</v>
       </c>
       <c r="K27">
-        <v>3415205.8233066001</v>
+        <v>3415205.8233542801</v>
       </c>
       <c r="L27">
-        <v>2967126.6654119999</v>
+        <v>25300.999794874999</v>
       </c>
       <c r="M27">
-        <v>67293.033379999993</v>
+        <v>539517.17186114995</v>
       </c>
       <c r="N27">
-        <v>1089848.7013566999</v>
+        <v>1089848.7013693501</v>
       </c>
       <c r="O27">
-        <v>219802.02366499999</v>
+        <v>67293.033376540901</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14725,46 +14767,46 @@
         <v>2005</v>
       </c>
       <c r="B28" s="21">
+        <f t="shared" si="0"/>
+        <v>1580.2796886269298</v>
+      </c>
+      <c r="C28" s="21">
         <f t="shared" si="1"/>
-        <v>92.921498528000001</v>
-      </c>
-      <c r="C28" s="21">
+        <v>2388.4894180246001</v>
+      </c>
+      <c r="D28" s="21">
         <f t="shared" si="2"/>
-        <v>2388.4894178692002</v>
-      </c>
-      <c r="D28" s="21">
+        <v>92.921498534616205</v>
+      </c>
+      <c r="E28" s="21">
         <f t="shared" si="3"/>
-        <v>1880.348873615</v>
-      </c>
-      <c r="E28" s="21">
+        <v>444.24651421484504</v>
+      </c>
+      <c r="F28" s="21">
         <f t="shared" si="4"/>
-        <v>36.258159211999995</v>
-      </c>
-      <c r="F28" s="21">
+        <v>1639.5652439031101</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="5"/>
-        <v>1639.5652438729999</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="6"/>
-        <v>144.17732927099999</v>
+        <v>36.258159210961502</v>
       </c>
       <c r="J28">
-        <v>92921.498527999996</v>
+        <v>1580279.6886269299</v>
       </c>
       <c r="K28">
-        <v>2388489.4178692</v>
+        <v>2388489.4180246</v>
       </c>
       <c r="L28">
-        <v>1880348.8736149999</v>
+        <v>92921.498534616199</v>
       </c>
       <c r="M28">
-        <v>36258.159211999999</v>
+        <v>444246.51421484502</v>
       </c>
       <c r="N28">
-        <v>1639565.2438729999</v>
+        <v>1639565.24390311</v>
       </c>
       <c r="O28">
-        <v>144177.329271</v>
+        <v>36258.159210961501</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14772,46 +14814,46 @@
         <v>2006</v>
       </c>
       <c r="B29" s="21">
+        <f t="shared" si="0"/>
+        <v>1769.54524675368</v>
+      </c>
+      <c r="C29" s="21">
         <f t="shared" si="1"/>
-        <v>30.938324953999999</v>
-      </c>
-      <c r="C29" s="21">
+        <v>2892.9322602971802</v>
+      </c>
+      <c r="D29" s="21">
         <f t="shared" si="2"/>
-        <v>2892.9322602285997</v>
-      </c>
-      <c r="D29" s="21">
+        <v>30.938324950123299</v>
+      </c>
+      <c r="E29" s="21">
         <f t="shared" si="3"/>
-        <v>2060.1517008159999</v>
-      </c>
-      <c r="E29" s="21">
+        <v>470.83750851892398</v>
+      </c>
+      <c r="F29" s="21">
         <f t="shared" si="4"/>
-        <v>24.37812182</v>
-      </c>
-      <c r="F29" s="21">
+        <v>1280.1770242056</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="5"/>
-        <v>1280.1770242339999</v>
-      </c>
-      <c r="G29" s="21">
-        <f t="shared" si="6"/>
-        <v>180.231054379</v>
+        <v>24.3781218228517</v>
       </c>
       <c r="J29">
-        <v>30938.324954</v>
+        <v>1769545.2467536801</v>
       </c>
       <c r="K29">
-        <v>2892932.2602285999</v>
+        <v>2892932.2602971802</v>
       </c>
       <c r="L29">
-        <v>2060151.7008160001</v>
+        <v>30938.3249501233</v>
       </c>
       <c r="M29">
-        <v>24378.12182</v>
+        <v>470837.50851892401</v>
       </c>
       <c r="N29">
-        <v>1280177.0242339999</v>
+        <v>1280177.0242055999</v>
       </c>
       <c r="O29">
-        <v>180231.05437900001</v>
+        <v>24378.121822851699</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14819,46 +14861,46 @@
         <v>2007</v>
       </c>
       <c r="B30" s="21">
+        <f t="shared" si="0"/>
+        <v>770.10285284321799</v>
+      </c>
+      <c r="C30" s="21">
         <f t="shared" si="1"/>
-        <v>43.270465016200006</v>
-      </c>
-      <c r="C30" s="21">
+        <v>4146.9427025089999</v>
+      </c>
+      <c r="D30" s="21">
         <f t="shared" si="2"/>
-        <v>4146.9427025209998</v>
-      </c>
-      <c r="D30" s="21">
+        <v>43.270465016639903</v>
+      </c>
+      <c r="E30" s="21">
         <f t="shared" si="3"/>
-        <v>916.91004860299995</v>
-      </c>
-      <c r="E30" s="21">
+        <v>300.10882282859097</v>
+      </c>
+      <c r="F30" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="21">
+        <v>1549.0331450116498</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="5"/>
-        <v>1549.0331449400001</v>
-      </c>
-      <c r="G30" s="21">
-        <f t="shared" si="6"/>
-        <v>153.301627102</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>43270.465016200003</v>
+        <v>770102.85284321802</v>
       </c>
       <c r="K30">
-        <v>4146942.7025210001</v>
+        <v>4146942.702509</v>
       </c>
       <c r="L30">
-        <v>916910.048603</v>
+        <v>43270.465016639901</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>300108.82282859099</v>
       </c>
       <c r="N30">
-        <v>1549033.14494</v>
+        <v>1549033.1450116499</v>
       </c>
       <c r="O30">
-        <v>153301.627102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14866,46 +14908,46 @@
         <v>2008</v>
       </c>
       <c r="B31" s="21">
+        <f t="shared" si="0"/>
+        <v>564.89181976072894</v>
+      </c>
+      <c r="C31" s="21">
         <f t="shared" si="1"/>
-        <v>4.0810007491129001</v>
-      </c>
-      <c r="C31" s="21">
+        <v>929.74968232507399</v>
+      </c>
+      <c r="D31" s="21">
         <f t="shared" si="2"/>
-        <v>929.74968239436907</v>
-      </c>
-      <c r="D31" s="21">
+        <v>4.0810007493090206</v>
+      </c>
+      <c r="E31" s="21">
         <f t="shared" si="3"/>
-        <v>1193.0481021501998</v>
-      </c>
-      <c r="E31" s="21">
+        <v>1042.72676987214</v>
+      </c>
+      <c r="F31" s="21">
         <f t="shared" si="4"/>
-        <v>36.400045538887099</v>
-      </c>
-      <c r="F31" s="21">
+        <v>3426.3824600535099</v>
+      </c>
+      <c r="G31" s="21">
         <f t="shared" si="5"/>
-        <v>3426.3824601046299</v>
-      </c>
-      <c r="G31" s="21">
-        <f t="shared" si="6"/>
-        <v>414.57048753129902</v>
+        <v>36.400045540298997</v>
       </c>
       <c r="J31">
-        <v>4081.0007491128999</v>
+        <v>564891.81976072898</v>
       </c>
       <c r="K31">
-        <v>929749.68239436904</v>
+        <v>929749.68232507398</v>
       </c>
       <c r="L31">
-        <v>1193048.1021501999</v>
+        <v>4081.0007493090202</v>
       </c>
       <c r="M31">
-        <v>36400.045538887098</v>
+        <v>1042726.76987214</v>
       </c>
       <c r="N31">
-        <v>3426382.4601046299</v>
+        <v>3426382.46005351</v>
       </c>
       <c r="O31">
-        <v>414570.487531299</v>
+        <v>36400.045540298997</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14913,46 +14955,46 @@
         <v>2009</v>
       </c>
       <c r="B32" s="21">
+        <f t="shared" si="0"/>
+        <v>516.48804012968196</v>
+      </c>
+      <c r="C32" s="21">
         <f t="shared" si="1"/>
-        <v>51.470648346381502</v>
-      </c>
-      <c r="C32" s="21">
+        <v>1497.4970684397799</v>
+      </c>
+      <c r="D32" s="21">
         <f t="shared" si="2"/>
-        <v>1497.49706849726</v>
-      </c>
-      <c r="D32" s="21">
+        <v>51.470648344940798</v>
+      </c>
+      <c r="E32" s="21">
         <f t="shared" si="3"/>
-        <v>795.67035172896101</v>
-      </c>
-      <c r="E32" s="21">
+        <v>608.93611316926797</v>
+      </c>
+      <c r="F32" s="21">
         <f t="shared" si="4"/>
-        <v>51.364279360618504</v>
-      </c>
-      <c r="F32" s="21">
+        <v>2339.1309693564899</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" si="5"/>
-        <v>2339.13096935974</v>
-      </c>
-      <c r="G32" s="21">
-        <f t="shared" si="6"/>
-        <v>329.75380156703898</v>
+        <v>51.364279359154402</v>
       </c>
       <c r="J32">
-        <v>51470.648346381502</v>
+        <v>516488.04012968199</v>
       </c>
       <c r="K32">
-        <v>1497497.0684972601</v>
+        <v>1497497.06843978</v>
       </c>
       <c r="L32">
-        <v>795670.35172896099</v>
+        <v>51470.648344940797</v>
       </c>
       <c r="M32">
-        <v>51364.279360618501</v>
+        <v>608936.11316926801</v>
       </c>
       <c r="N32">
-        <v>2339130.9693597401</v>
+        <v>2339130.9693564898</v>
       </c>
       <c r="O32">
-        <v>329753.80156703899</v>
+        <v>51364.279359154403</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -14960,46 +15002,46 @@
         <v>2010</v>
       </c>
       <c r="B33" s="21">
+        <f t="shared" si="0"/>
+        <v>360.75459595608299</v>
+      </c>
+      <c r="C33" s="21">
         <f t="shared" si="1"/>
-        <v>24.247019619033299</v>
-      </c>
-      <c r="C33" s="21">
+        <v>1024.47888516938</v>
+      </c>
+      <c r="D33" s="21">
         <f t="shared" si="2"/>
-        <v>1024.4788851769802</v>
-      </c>
-      <c r="D33" s="21">
+        <v>24.247019620247201</v>
+      </c>
+      <c r="E33" s="21">
         <f t="shared" si="3"/>
-        <v>721.04644373843405</v>
-      </c>
-      <c r="E33" s="21">
+        <v>692.11461890650708</v>
+      </c>
+      <c r="F33" s="21">
         <f t="shared" si="4"/>
-        <v>105.22075714076701</v>
-      </c>
-      <c r="F33" s="21">
+        <v>3401.4315358426397</v>
+      </c>
+      <c r="G33" s="21">
         <f t="shared" si="5"/>
-        <v>3401.4315359402203</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" si="6"/>
-        <v>331.82277119156601</v>
+        <v>105.22075713945399</v>
       </c>
       <c r="J33">
-        <v>24247.019619033301</v>
+        <v>360754.59595608298</v>
       </c>
       <c r="K33">
-        <v>1024478.8851769801</v>
+        <v>1024478.88516938</v>
       </c>
       <c r="L33">
-        <v>721046.443738434</v>
+        <v>24247.0196202472</v>
       </c>
       <c r="M33">
-        <v>105220.757140767</v>
+        <v>692114.61890650704</v>
       </c>
       <c r="N33">
-        <v>3401431.5359402201</v>
+        <v>3401431.5358426399</v>
       </c>
       <c r="O33">
-        <v>331822.77119156602</v>
+        <v>105220.757139454</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15007,46 +15049,46 @@
         <v>2011</v>
       </c>
       <c r="B34" s="21">
+        <f t="shared" si="0"/>
+        <v>353.79886424744001</v>
+      </c>
+      <c r="C34" s="21">
         <f t="shared" si="1"/>
-        <v>8.0135497884193505</v>
-      </c>
-      <c r="C34" s="21">
+        <v>881.73285179946504</v>
+      </c>
+      <c r="D34" s="21">
         <f t="shared" si="2"/>
-        <v>881.73285180845903</v>
-      </c>
-      <c r="D34" s="21">
+        <v>8.0135497896138812</v>
+      </c>
+      <c r="E34" s="21">
         <f t="shared" si="3"/>
-        <v>900.65042686117897</v>
-      </c>
-      <c r="E34" s="21">
+        <v>981.43543403528099</v>
+      </c>
+      <c r="F34" s="21">
         <f t="shared" si="4"/>
-        <v>1492.56476275058</v>
-      </c>
-      <c r="F34" s="21">
+        <v>2847.7826975007101</v>
+      </c>
+      <c r="G34" s="21">
         <f t="shared" si="5"/>
-        <v>2847.7826974545401</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" si="6"/>
-        <v>434.58387138482101</v>
+        <v>1492.5647625582401</v>
       </c>
       <c r="J34">
-        <v>8013.5497884193501</v>
+        <v>353798.86424744001</v>
       </c>
       <c r="K34">
-        <v>881732.85180845903</v>
+        <v>881732.85179946502</v>
       </c>
       <c r="L34">
-        <v>900650.42686117894</v>
+        <v>8013.5497896138804</v>
       </c>
       <c r="M34">
-        <v>1492564.76275058</v>
+        <v>981435.43403528095</v>
       </c>
       <c r="N34">
-        <v>2847782.6974545401</v>
+        <v>2847782.6975007099</v>
       </c>
       <c r="O34">
-        <v>434583.87138482102</v>
+        <v>1492564.76255824</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15054,46 +15096,46 @@
         <v>2012</v>
       </c>
       <c r="B35" s="21">
+        <f t="shared" si="0"/>
+        <v>183.27164976662601</v>
+      </c>
+      <c r="C35" s="21">
         <f t="shared" si="1"/>
-        <v>3.6873113909677397</v>
-      </c>
-      <c r="C35" s="21">
+        <v>684.46560183052497</v>
+      </c>
+      <c r="D35" s="21">
         <f t="shared" si="2"/>
-        <v>684.46560184030091</v>
-      </c>
-      <c r="D35" s="21">
+        <v>3.6873113915209803</v>
+      </c>
+      <c r="E35" s="21">
         <f t="shared" si="3"/>
-        <v>459.84948837181798</v>
-      </c>
-      <c r="E35" s="21">
+        <v>506.70409104259596</v>
+      </c>
+      <c r="F35" s="21">
         <f t="shared" si="4"/>
-        <v>10.601020249032301</v>
-      </c>
-      <c r="F35" s="21">
+        <v>3286.8459110827198</v>
+      </c>
+      <c r="G35" s="21">
         <f t="shared" si="5"/>
-        <v>3286.8459111976999</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" si="6"/>
-        <v>230.12625244658199</v>
+        <v>10.601020250622799</v>
       </c>
       <c r="J35">
-        <v>3687.31139096774</v>
+        <v>183271.64976662601</v>
       </c>
       <c r="K35">
-        <v>684465.60184030095</v>
+        <v>684465.60183052497</v>
       </c>
       <c r="L35">
-        <v>459849.48837181798</v>
+        <v>3687.3113915209801</v>
       </c>
       <c r="M35">
-        <v>10601.020249032301</v>
+        <v>506704.09104259597</v>
       </c>
       <c r="N35">
-        <v>3286845.9111977001</v>
+        <v>3286845.9110827199</v>
       </c>
       <c r="O35">
-        <v>230126.25244658199</v>
+        <v>10601.0202506228</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15101,46 +15143,46 @@
         <v>2013</v>
       </c>
       <c r="B36" s="21">
+        <f t="shared" si="0"/>
+        <v>1288.67366138846</v>
+      </c>
+      <c r="C36" s="21">
         <f t="shared" si="1"/>
-        <v>994.4318392419849</v>
-      </c>
-      <c r="C36" s="21">
+        <v>1641.1157917503801</v>
+      </c>
+      <c r="D36" s="21">
         <f t="shared" si="2"/>
-        <v>1641.1157916502607</v>
-      </c>
-      <c r="D36" s="21">
+        <v>3.0256985052459999</v>
+      </c>
+      <c r="E36" s="21">
         <f t="shared" si="3"/>
-        <v>297.26752062688502</v>
-      </c>
-      <c r="E36" s="21">
+        <v>547.56974355427997</v>
+      </c>
+      <c r="F36" s="21">
         <f t="shared" si="4"/>
-        <v>7.7877231104147597</v>
-      </c>
-      <c r="F36" s="21">
+        <v>3230.27391752738</v>
+      </c>
+      <c r="G36" s="21">
         <f t="shared" si="5"/>
-        <v>3230.2739173212399</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" si="6"/>
-        <v>545.27221833311501</v>
+        <v>5.4901978638559603</v>
       </c>
       <c r="J36">
-        <v>994431.83924198488</v>
+        <v>1288673.6613884601</v>
       </c>
       <c r="K36">
-        <v>1641115.7916502608</v>
+        <v>1641115.7917503801</v>
       </c>
       <c r="L36">
-        <v>297267.520626885</v>
+        <v>3025.698505246</v>
       </c>
       <c r="M36">
-        <v>7787.7231104147595</v>
+        <v>547569.74355428002</v>
       </c>
       <c r="N36">
-        <v>3230273.9173212401</v>
+        <v>3230273.9175273799</v>
       </c>
       <c r="O36">
-        <v>545272.21833311499</v>
+        <v>5490.1978638559603</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15148,46 +15190,46 @@
         <v>2014</v>
       </c>
       <c r="B37" s="21">
+        <f t="shared" si="0"/>
+        <v>537.58841069040295</v>
+      </c>
+      <c r="C37" s="21">
         <f t="shared" si="1"/>
-        <v>530.84115305459022</v>
-      </c>
-      <c r="C37" s="21">
+        <v>453.37372803005798</v>
+      </c>
+      <c r="D37" s="21">
         <f t="shared" si="2"/>
-        <v>453.37372802787502</v>
-      </c>
-      <c r="D37" s="21">
+        <v>6.5040104341121596</v>
+      </c>
+      <c r="E37" s="21">
         <f t="shared" si="3"/>
-        <v>13.251268046065599</v>
-      </c>
-      <c r="E37" s="21">
+        <v>87.796671923669791</v>
+      </c>
+      <c r="F37" s="21">
         <f t="shared" si="4"/>
-        <v>42.881322664409801</v>
-      </c>
-      <c r="F37" s="21">
+        <v>3411.6203785397097</v>
+      </c>
+      <c r="G37" s="21">
         <f t="shared" si="5"/>
-        <v>3411.6203783710198</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="6"/>
-        <v>87.796671923934397</v>
+        <v>42.881322661964397</v>
       </c>
       <c r="J37">
-        <v>530841.15305459022</v>
+        <v>537588.41069040296</v>
       </c>
       <c r="K37">
-        <v>453373.72802787501</v>
+        <v>453373.72803005797</v>
       </c>
       <c r="L37">
-        <v>13251.268046065599</v>
+        <v>6504.0104341121596</v>
       </c>
       <c r="M37">
-        <v>42881.322664409803</v>
+        <v>87796.671923669797</v>
       </c>
       <c r="N37">
-        <v>3411620.3783710198</v>
+        <v>3411620.3785397098</v>
       </c>
       <c r="O37">
-        <v>87796.671923934395</v>
+        <v>42881.322661964397</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15195,46 +15237,46 @@
         <v>2015</v>
       </c>
       <c r="B38" s="21">
+        <f t="shared" si="0"/>
+        <v>609.30695104907602</v>
+      </c>
+      <c r="C38" s="21">
         <f t="shared" si="1"/>
-        <v>515.94128285068859</v>
-      </c>
-      <c r="C38" s="21">
+        <v>1029.77423941662</v>
+      </c>
+      <c r="D38" s="21">
         <f t="shared" si="2"/>
-        <v>577.29676516842403</v>
-      </c>
-      <c r="D38" s="21">
+        <v>3.7955984361664798</v>
+      </c>
+      <c r="E38" s="21">
         <f t="shared" si="3"/>
-        <v>31.543622573770499</v>
-      </c>
-      <c r="E38" s="21">
+        <v>143.82504548259899</v>
+      </c>
+      <c r="F38" s="21">
         <f t="shared" si="4"/>
-        <v>22.735994142411499</v>
-      </c>
-      <c r="F38" s="21">
+        <v>2127.9885162124801</v>
+      </c>
+      <c r="G38" s="21">
         <f t="shared" si="5"/>
-        <v>2580.4659900619777</v>
-      </c>
-      <c r="G38" s="21">
-        <f t="shared" si="6"/>
-        <v>206.91229065022998</v>
+        <v>20.205595185728502</v>
       </c>
       <c r="J38">
-        <v>515941.28285068856</v>
+        <v>609306.95104907604</v>
       </c>
       <c r="K38">
-        <v>577296.765168424</v>
+        <v>1029774.23941662</v>
       </c>
       <c r="L38">
-        <v>31543.622573770499</v>
+        <v>3795.59843616648</v>
       </c>
       <c r="M38">
-        <v>22735.994142411499</v>
+        <v>143825.045482599</v>
       </c>
       <c r="N38">
-        <v>2580465.9900619779</v>
+        <v>2127988.5162124801</v>
       </c>
       <c r="O38">
-        <v>206912.29065022999</v>
+        <v>20205.5951857285</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15242,46 +15284,46 @@
         <v>2016</v>
       </c>
       <c r="B39" s="21">
+        <f t="shared" si="0"/>
+        <v>99.173445628352695</v>
+      </c>
+      <c r="C39" s="21">
         <f t="shared" si="1"/>
-        <v>91.219110616614756</v>
-      </c>
-      <c r="C39" s="21">
+        <v>1533.3479519790399</v>
+      </c>
+      <c r="D39" s="21">
         <f t="shared" si="2"/>
-        <v>963.621859582041</v>
-      </c>
-      <c r="D39" s="21">
+        <v>38.495177637069503</v>
+      </c>
+      <c r="E39" s="21">
         <f t="shared" si="3"/>
-        <v>21.110989333723392</v>
-      </c>
-      <c r="E39" s="21">
+        <v>19.6833159364751</v>
+      </c>
+      <c r="F39" s="21">
         <f t="shared" si="4"/>
-        <v>672.26754663688507</v>
-      </c>
-      <c r="F39" s="21">
+        <v>3949.24719203418</v>
+      </c>
+      <c r="G39" s="21">
         <f t="shared" si="5"/>
-        <v>4518.9732844609598</v>
-      </c>
-      <c r="G39" s="21">
-        <f t="shared" si="6"/>
-        <v>42.4198530402766</v>
+        <v>669.66556043558603</v>
       </c>
       <c r="J39">
-        <v>91219.110616614751</v>
+        <v>99173.445628352696</v>
       </c>
       <c r="K39">
-        <v>963621.85958204104</v>
+        <v>1533347.9519790399</v>
       </c>
       <c r="L39">
-        <v>21110.989333723392</v>
+        <v>38495.177637069501</v>
       </c>
       <c r="M39">
-        <v>672267.54663688503</v>
+        <v>19683.315936475101</v>
       </c>
       <c r="N39">
-        <v>4518973.28446096</v>
+        <v>3949247.1920341798</v>
       </c>
       <c r="O39">
-        <v>42419.853040276597</v>
+        <v>669665.56043558603</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15289,46 +15331,46 @@
         <v>2017</v>
       </c>
       <c r="B40" s="21">
+        <f t="shared" si="0"/>
+        <v>320.39951919537202</v>
+      </c>
+      <c r="C40" s="21">
         <f t="shared" si="1"/>
-        <v>320.399519231</v>
-      </c>
-      <c r="C40" s="21">
+        <v>2727.02158316327</v>
+      </c>
+      <c r="D40" s="21">
         <f t="shared" si="2"/>
-        <v>2727.0215830176498</v>
-      </c>
-      <c r="D40" s="21">
+        <v>61.761143728081699</v>
+      </c>
+      <c r="E40" s="21">
         <f t="shared" si="3"/>
-        <v>61.761143726747804</v>
-      </c>
-      <c r="E40" s="21">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="21">
+        <v>5539.6127735177506</v>
+      </c>
+      <c r="G40" s="21">
         <f t="shared" si="5"/>
-        <v>5539.6127734143502</v>
-      </c>
-      <c r="G40" s="21">
-        <f t="shared" si="6"/>
-        <v>198.96566949825203</v>
+        <v>198.965669493148</v>
       </c>
       <c r="J40">
-        <v>320399.51923099998</v>
+        <v>320399.51919537201</v>
       </c>
       <c r="K40">
-        <v>2727021.5830176501</v>
+        <v>2727021.5831632698</v>
       </c>
       <c r="L40">
-        <v>61761.143726747803</v>
+        <v>61761.143728081697</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5539612.7734143501</v>
+        <v>5539612.7735177502</v>
       </c>
       <c r="O40">
-        <v>198965.66949825201</v>
+        <v>198965.66949314799</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -15336,46 +15378,46 @@
         <v>2018</v>
       </c>
       <c r="B41" s="21">
+        <f t="shared" si="0"/>
+        <v>380.82098985802105</v>
+      </c>
+      <c r="C41" s="21">
         <f t="shared" si="1"/>
-        <v>380.82098983309999</v>
-      </c>
-      <c r="C41" s="21">
+        <v>1052.63848656505</v>
+      </c>
+      <c r="D41" s="21">
         <f t="shared" si="2"/>
-        <v>1052.63848666423</v>
-      </c>
-      <c r="D41" s="21">
+        <v>123.72665631869</v>
+      </c>
+      <c r="E41" s="21">
         <f t="shared" si="3"/>
-        <v>123.726656308302</v>
-      </c>
-      <c r="E41" s="21">
+        <v>0</v>
+      </c>
+      <c r="F41" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="21">
+        <v>3972.8057367101296</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="5"/>
-        <v>3972.8057369057701</v>
-      </c>
-      <c r="G41" s="21">
-        <f t="shared" si="6"/>
-        <v>523.31282141909799</v>
+        <v>523.31282141829797</v>
       </c>
       <c r="J41">
-        <v>380820.9898331</v>
+        <v>380820.98985802103</v>
       </c>
       <c r="K41">
-        <v>1052638.48666423</v>
+        <v>1052638.48656505</v>
       </c>
       <c r="L41">
-        <v>123726.656308302</v>
+        <v>123726.65631869</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3972805.7369057699</v>
+        <v>3972805.7367101298</v>
       </c>
       <c r="O41">
-        <v>523312.82141909801</v>
+        <v>523312.821418298</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15383,124 +15425,124 @@
         <v>2019</v>
       </c>
       <c r="B42" s="23">
+        <f t="shared" si="0"/>
+        <v>844.18409615763994</v>
+      </c>
+      <c r="C42" s="23">
         <f t="shared" si="1"/>
-        <v>844.18409610399999</v>
-      </c>
-      <c r="C42" s="23">
+        <v>1186.8929124445401</v>
+      </c>
+      <c r="D42" s="23">
         <f t="shared" si="2"/>
-        <v>1186.89291244793</v>
-      </c>
-      <c r="D42" s="23">
+        <v>61.010426870909498</v>
+      </c>
+      <c r="E42" s="23">
         <f t="shared" si="3"/>
-        <v>61.010426884759397</v>
-      </c>
-      <c r="E42" s="23">
+        <v>0</v>
+      </c>
+      <c r="F42" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="23">
+        <v>4577.7915247594901</v>
+      </c>
+      <c r="G42" s="23">
         <f t="shared" si="5"/>
-        <v>4577.7915247786696</v>
-      </c>
-      <c r="G42" s="23">
-        <f t="shared" si="6"/>
-        <v>334.14135483524097</v>
+        <v>334.14135480971402</v>
       </c>
       <c r="J42">
-        <v>844184.096104</v>
+        <v>844184.09615763999</v>
       </c>
       <c r="K42">
-        <v>1186892.9124479301</v>
+        <v>1186892.9124445401</v>
       </c>
       <c r="L42">
-        <v>61010.426884759399</v>
+        <v>61010.426870909498</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>4577791.5247786697</v>
+        <v>4577791.52475949</v>
       </c>
       <c r="O42">
-        <v>334141.35483524099</v>
+        <v>334141.35480971402</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="31">
         <f>AVERAGE(B4:B42)</f>
-        <v>119.57808073472034</v>
+        <v>654.54021716011016</v>
       </c>
       <c r="C43" s="31">
-        <f t="shared" ref="C43:G43" si="7">AVERAGE(C4:C42)</f>
-        <v>1243.7756038907517</v>
+        <f t="shared" ref="C43:G43" si="6">AVERAGE(C4:C42)</f>
+        <v>1269.9859517560271</v>
       </c>
       <c r="D43" s="31">
-        <f t="shared" si="7"/>
-        <v>657.35079067293839</v>
+        <f t="shared" si="6"/>
+        <v>32.923740247449814</v>
       </c>
       <c r="E43" s="31">
-        <f t="shared" si="7"/>
-        <v>67.963895160564249</v>
+        <f t="shared" si="6"/>
+        <v>193.39504351897986</v>
       </c>
       <c r="F43" s="31">
-        <f t="shared" si="7"/>
-        <v>1502.4166201085486</v>
+        <f t="shared" si="6"/>
+        <v>1476.2062722541518</v>
       </c>
       <c r="G43" s="31">
-        <f t="shared" si="7"/>
-        <v>130.82730735259128</v>
+        <f t="shared" si="6"/>
+        <v>94.861072984048306</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="31">
         <f>MAX(B4:B42)</f>
-        <v>994.4318392419849</v>
+        <v>2647.4115172421498</v>
       </c>
       <c r="C44" s="31">
-        <f t="shared" ref="C44:G44" si="8">MAX(C4:C42)</f>
-        <v>4146.9427025209998</v>
+        <f t="shared" ref="C44:G44" si="7">MAX(C4:C42)</f>
+        <v>4146.9427025089999</v>
       </c>
       <c r="D44" s="31">
-        <f t="shared" si="8"/>
-        <v>2967.126665412</v>
+        <f t="shared" si="7"/>
+        <v>123.72665631869</v>
       </c>
       <c r="E44" s="31">
-        <f t="shared" si="8"/>
-        <v>1492.56476275058</v>
+        <f t="shared" si="7"/>
+        <v>1042.72676987214</v>
       </c>
       <c r="F44" s="31">
-        <f t="shared" si="8"/>
-        <v>5539.6127734143502</v>
+        <f t="shared" si="7"/>
+        <v>5539.6127735177506</v>
       </c>
       <c r="G44" s="31">
-        <f t="shared" si="8"/>
-        <v>545.27221833311501</v>
+        <f t="shared" si="7"/>
+        <v>1492.5647625582401</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="31">
         <f>MEDIAN(B4:B42)</f>
-        <v>30.938324953999999</v>
+        <v>477.79485972431303</v>
       </c>
       <c r="C45" s="31">
-        <f t="shared" ref="C45:G45" si="9">MEDIAN(C4:C42)</f>
-        <v>1014.854174671</v>
+        <f t="shared" ref="C45:G45" si="8">MEDIAN(C4:C42)</f>
+        <v>1029.77423941662</v>
       </c>
       <c r="D45" s="31">
-        <f t="shared" si="9"/>
-        <v>458.86944336600004</v>
+        <f t="shared" si="8"/>
+        <v>25.990345007123999</v>
       </c>
       <c r="E45" s="31">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10.635168664035</v>
       </c>
       <c r="F45" s="31">
-        <f t="shared" si="9"/>
-        <v>1089.8487013566998</v>
+        <f t="shared" si="8"/>
+        <v>1089.84870136935</v>
       </c>
       <c r="G45" s="31">
-        <f t="shared" si="9"/>
-        <v>51.692861843754102</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
